--- a/data/trans_orig/P57B6_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7FB5918-60BF-4B8C-90A6-8F4D11A2F0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2B8331-631B-4F15-8067-43319645E50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13F5DCC6-4F80-4A40-97DE-1212C01180BD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6BA0466-78C8-47EF-B837-673FE8861107}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="324">
   <si>
     <t>Población según se ha sentido tranquilo/a y relajado/a en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>85,88%</t>
   </si>
   <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>3,53%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -167,13 +167,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>1,73%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,43%</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -182,7 +182,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,1%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,37 +194,37 @@
     <t>57,32%</t>
   </si>
   <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
   </si>
   <si>
     <t>42,22%</t>
   </si>
   <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>49,51%</t>
   </si>
   <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
   </si>
   <si>
     <t>37,59%</t>
@@ -233,49 +233,49 @@
     <t>33,96%</t>
   </si>
   <si>
-    <t>41,39%</t>
+    <t>41,54%</t>
   </si>
   <si>
     <t>34,53%</t>
   </si>
   <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>8,21%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,72%</t>
   </si>
   <si>
     <t>5,5%</t>
@@ -284,13 +284,16 @@
     <t>3,81%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -299,25 +302,25 @@
     <t>55,25%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
   </si>
   <si>
     <t>49,43%</t>
   </si>
   <si>
-    <t>45,88%</t>
+    <t>45,85%</t>
   </si>
   <si>
     <t>52,96%</t>
@@ -326,7 +329,7 @@
     <t>34,61%</t>
   </si>
   <si>
-    <t>29,71%</t>
+    <t>29,59%</t>
   </si>
   <si>
     <t>40,09%</t>
@@ -335,697 +338,673 @@
     <t>36,77%</t>
   </si>
   <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
   </si>
   <si>
     <t>35,77%</t>
   </si>
   <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
   </si>
   <si>
     <t>8,95%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>11,54%</t>
   </si>
   <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,4%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>21,84%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>2,57%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
   </si>
   <si>
     <t>42,81%</t>
   </si>
   <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1440,7 +1419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BDF199-D2C6-42BC-B23F-BE2B6A9E2B20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C769F39-7D59-4CBF-B5BC-83FE1231D215}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2010,7 +1989,7 @@
         <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,7 +2045,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2078,13 +2057,13 @@
         <v>177450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -2093,13 +2072,13 @@
         <v>165524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>403</v>
@@ -2108,13 +2087,13 @@
         <v>342974</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2108,13 @@
         <v>111170</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>208</v>
@@ -2144,13 +2123,13 @@
         <v>137047</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>342</v>
@@ -2159,13 +2138,13 @@
         <v>248216</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2159,13 @@
         <v>28737</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -2195,13 +2174,13 @@
         <v>51338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -2210,13 +2189,13 @@
         <v>80076</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2210,13 @@
         <v>3847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -2246,13 +2225,13 @@
         <v>18778</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2261,13 +2240,13 @@
         <v>22625</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2302,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2335,13 +2314,13 @@
         <v>157380</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>192</v>
@@ -2350,13 +2329,13 @@
         <v>144921</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>323</v>
@@ -2365,13 +2344,13 @@
         <v>302301</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2365,13 @@
         <v>105698</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -2401,13 +2380,13 @@
         <v>157643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>307</v>
@@ -2416,10 +2395,10 @@
         <v>263341</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>140</v>
@@ -2760,7 +2739,7 @@
         <v>2770</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>187</v>
@@ -2778,10 +2757,10 @@
         <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,7 +2885,7 @@
         <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="H30" s="7">
         <v>184</v>
@@ -2915,13 +2894,13 @@
         <v>96744</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>345</v>
@@ -2930,13 +2909,13 @@
         <v>207556</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2930,13 @@
         <v>21191</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>86</v>
@@ -2969,10 +2948,10 @@
         <v>72</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>122</v>
@@ -2981,13 +2960,13 @@
         <v>66326</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +2981,13 @@
         <v>6574</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -3017,7 +2996,7 @@
         <v>7397</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>221</v>
@@ -3035,10 +3014,10 @@
         <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3073,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3106,13 +3085,13 @@
         <v>244637</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>269</v>
@@ -3121,13 +3100,13 @@
         <v>197302</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>496</v>
@@ -3136,13 +3115,13 @@
         <v>441939</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3136,13 @@
         <v>264752</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>432</v>
@@ -3172,13 +3151,13 @@
         <v>419192</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>690</v>
@@ -3187,13 +3166,13 @@
         <v>683944</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3187,13 @@
         <v>95414</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>202</v>
@@ -3223,13 +3202,13 @@
         <v>150871</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>296</v>
@@ -3238,13 +3217,13 @@
         <v>246285</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3238,13 @@
         <v>22952</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H37" s="7">
         <v>57</v>
@@ -3274,13 +3253,13 @@
         <v>36837</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -3289,13 +3268,13 @@
         <v>59789</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,7 +3330,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3363,13 +3342,13 @@
         <v>391744</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>323</v>
@@ -3378,13 +3357,13 @@
         <v>293935</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>621</v>
@@ -3393,13 +3372,13 @@
         <v>685680</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3393,13 @@
         <v>308496</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H40" s="7">
         <v>451</v>
@@ -3429,13 +3408,13 @@
         <v>346492</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M40" s="7">
         <v>758</v>
@@ -3444,13 +3423,13 @@
         <v>654988</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3444,13 @@
         <v>137089</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H41" s="7">
         <v>255</v>
@@ -3480,13 +3459,13 @@
         <v>202680</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M41" s="7">
         <v>390</v>
@@ -3495,13 +3474,13 @@
         <v>339768</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3495,13 @@
         <v>22099</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H42" s="7">
         <v>33</v>
@@ -3531,13 +3510,13 @@
         <v>25327</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M42" s="7">
         <v>55</v>
@@ -3546,13 +3525,13 @@
         <v>47426</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3599,13 @@
         <v>1460097</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H44" s="7">
         <v>1530</v>
@@ -3635,13 +3614,13 @@
         <v>1192067</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="M44" s="7">
         <v>2815</v>
@@ -3650,13 +3629,13 @@
         <v>2652164</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,16 +3647,16 @@
         <v>1496</v>
       </c>
       <c r="D45" s="7">
-        <v>1373796</v>
+        <v>1373795</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H45" s="7">
         <v>2415</v>
@@ -3686,13 +3665,13 @@
         <v>1696237</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M45" s="7">
         <v>3911</v>
@@ -3701,13 +3680,13 @@
         <v>3070033</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>240</v>
+        <v>307</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>313</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,16 +3698,16 @@
         <v>513</v>
       </c>
       <c r="D46" s="7">
-        <v>464558</v>
+        <v>464557</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H46" s="7">
         <v>1213</v>
@@ -3737,13 +3716,13 @@
         <v>782181</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M46" s="7">
         <v>1726</v>
@@ -3752,13 +3731,13 @@
         <v>1246739</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3752,13 @@
         <v>76701</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H47" s="7">
         <v>184</v>
@@ -3788,13 +3767,13 @@
         <v>125037</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>326</v>
+        <v>15</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>152</v>
+        <v>320</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>327</v>
+        <v>35</v>
       </c>
       <c r="M47" s="7">
         <v>257</v>
@@ -3803,13 +3782,13 @@
         <v>201738</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>328</v>
+        <v>116</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>119</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3800,7 @@
         <v>3367</v>
       </c>
       <c r="D48" s="7">
-        <v>3375151</v>
+        <v>3375150</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>49</v>
@@ -3865,7 +3844,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B6_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2B8331-631B-4F15-8067-43319645E50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0103B1C-1E8C-4479-9356-AEE7ACBFEE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6BA0466-78C8-47EF-B837-673FE8861107}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99D98840-188B-4942-B25E-FB7B94EA1CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1419,7 +1419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C769F39-7D59-4CBF-B5BC-83FE1231D215}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B714F25-4101-401D-89FC-3222C86A2ABE}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B6_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0103B1C-1E8C-4479-9356-AEE7ACBFEE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13399988-72DB-42D1-9A81-E6D479F7D560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99D98840-188B-4942-B25E-FB7B94EA1CC0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3FD0B979-0D36-4D59-8D5E-60DA88FC09DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
   <si>
     <t>Población según se ha sentido tranquilo/a y relajado/a en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
@@ -74,937 +74,958 @@
     <t>10,25%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>4,95%</t>
   </si>
   <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
     <t>3,29%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
+    <t>3,93%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1419,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B714F25-4101-401D-89FC-3222C86A2ABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45FDD79-8954-4918-B7E5-EBEBE9788315}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1989,7 +2010,7 @@
         <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,7 +2066,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2057,13 +2078,13 @@
         <v>177450</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
@@ -2072,13 +2093,13 @@
         <v>165524</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>403</v>
@@ -2087,13 +2108,13 @@
         <v>342974</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2129,13 @@
         <v>111170</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>208</v>
@@ -2123,13 +2144,13 @@
         <v>137047</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>342</v>
@@ -2138,13 +2159,13 @@
         <v>248216</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,13 +2180,13 @@
         <v>28737</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -2174,13 +2195,13 @@
         <v>51338</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -2189,13 +2210,13 @@
         <v>80076</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2231,13 @@
         <v>3847</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -2225,13 +2246,13 @@
         <v>18778</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -2240,13 +2261,13 @@
         <v>22625</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,7 +2323,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2314,13 +2335,13 @@
         <v>157380</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>192</v>
@@ -2329,13 +2350,13 @@
         <v>144921</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>323</v>
@@ -2344,13 +2365,13 @@
         <v>302301</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2386,13 @@
         <v>105698</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>205</v>
@@ -2380,13 +2401,13 @@
         <v>157643</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>307</v>
@@ -2395,10 +2416,10 @@
         <v>263341</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>140</v>
@@ -2739,7 +2760,7 @@
         <v>2770</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>187</v>
@@ -2757,10 +2778,10 @@
         <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,7 +2906,7 @@
         <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>184</v>
@@ -2894,13 +2915,13 @@
         <v>96744</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>345</v>
@@ -2909,13 +2930,13 @@
         <v>207556</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2951,13 @@
         <v>21191</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>86</v>
@@ -2948,10 +2969,10 @@
         <v>72</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>122</v>
@@ -2960,13 +2981,13 @@
         <v>66326</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +3002,13 @@
         <v>6574</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
@@ -2996,7 +3017,7 @@
         <v>7397</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>221</v>
@@ -3014,10 +3035,10 @@
         <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3094,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3085,13 +3106,13 @@
         <v>244637</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H34" s="7">
         <v>269</v>
@@ -3100,13 +3121,13 @@
         <v>197302</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>496</v>
@@ -3115,13 +3136,13 @@
         <v>441939</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>66</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3157,13 @@
         <v>264752</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>432</v>
@@ -3151,13 +3172,13 @@
         <v>419192</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>690</v>
@@ -3166,13 +3187,13 @@
         <v>683944</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,13 +3208,13 @@
         <v>95414</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>202</v>
@@ -3202,13 +3223,13 @@
         <v>150871</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>163</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>296</v>
@@ -3217,13 +3238,13 @@
         <v>246285</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3259,13 @@
         <v>22952</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H37" s="7">
         <v>57</v>
@@ -3253,13 +3274,13 @@
         <v>36837</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -3268,13 +3289,13 @@
         <v>59789</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,7 +3351,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3342,13 +3363,13 @@
         <v>391744</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>323</v>
@@ -3357,13 +3378,13 @@
         <v>293935</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>621</v>
@@ -3372,13 +3393,13 @@
         <v>685680</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3414,13 @@
         <v>308496</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>272</v>
+        <v>201</v>
       </c>
       <c r="H40" s="7">
         <v>451</v>
@@ -3408,13 +3429,13 @@
         <v>346492</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>758</v>
@@ -3423,13 +3444,13 @@
         <v>654988</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>64</v>
+        <v>278</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3465,13 @@
         <v>137089</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>255</v>
@@ -3459,13 +3480,13 @@
         <v>202680</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>390</v>
@@ -3474,13 +3495,13 @@
         <v>339768</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3516,13 @@
         <v>22099</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>33</v>
@@ -3510,13 +3531,13 @@
         <v>25327</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>55</v>
@@ -3525,13 +3546,13 @@
         <v>47426</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3620,13 @@
         <v>1460097</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H44" s="7">
         <v>1530</v>
@@ -3614,13 +3635,13 @@
         <v>1192067</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>133</v>
+        <v>302</v>
       </c>
       <c r="M44" s="7">
         <v>2815</v>
@@ -3629,13 +3650,13 @@
         <v>2652164</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,16 +3668,16 @@
         <v>1496</v>
       </c>
       <c r="D45" s="7">
-        <v>1373795</v>
+        <v>1373796</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H45" s="7">
         <v>2415</v>
@@ -3665,13 +3686,13 @@
         <v>1696237</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M45" s="7">
         <v>3911</v>
@@ -3680,13 +3701,13 @@
         <v>3070033</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>140</v>
+        <v>312</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>94</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,16 +3719,16 @@
         <v>513</v>
       </c>
       <c r="D46" s="7">
-        <v>464557</v>
+        <v>464558</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H46" s="7">
         <v>1213</v>
@@ -3716,13 +3737,13 @@
         <v>782181</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M46" s="7">
         <v>1726</v>
@@ -3731,13 +3752,13 @@
         <v>1246739</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3773,13 @@
         <v>76701</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H47" s="7">
         <v>184</v>
@@ -3767,13 +3788,13 @@
         <v>125037</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>320</v>
+        <v>152</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>35</v>
+        <v>327</v>
       </c>
       <c r="M47" s="7">
         <v>257</v>
@@ -3782,13 +3803,13 @@
         <v>201738</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>322</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,7 +3821,7 @@
         <v>3367</v>
       </c>
       <c r="D48" s="7">
-        <v>3375150</v>
+        <v>3375151</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>49</v>
@@ -3844,7 +3865,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B6_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13399988-72DB-42D1-9A81-E6D479F7D560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFD62A5-3434-45EE-BFFA-0EB570B3A018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3FD0B979-0D36-4D59-8D5E-60DA88FC09DD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{985851EC-1F93-4364-8478-0CBC9527FCD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
   <si>
     <t>Población según se ha sentido tranquilo/a y relajado/a en 2023 (Tasa respuesta: 99,61%)</t>
   </si>
@@ -71,961 +71,967 @@
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
   </si>
   <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>En algún momento</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
   </si>
   <si>
-    <t>0,34%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
   </si>
   <si>
     <t>36,84%</t>
   </si>
   <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1440,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45FDD79-8954-4918-B7E5-EBEBE9788315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCCD452-A23E-45A4-810E-A4678AD43226}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1561,7 +1567,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>26559</v>
+        <v>32667</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1576,7 +1582,7 @@
         <v>31</v>
       </c>
       <c r="I4" s="7">
-        <v>13437</v>
+        <v>13829</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1591,7 +1597,7 @@
         <v>68</v>
       </c>
       <c r="N4" s="7">
-        <v>39995</v>
+        <v>46495</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1612,7 +1618,7 @@
         <v>281</v>
       </c>
       <c r="D5" s="7">
-        <v>222638</v>
+        <v>265675</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1627,7 +1633,7 @@
         <v>472</v>
       </c>
       <c r="I5" s="7">
-        <v>241092</v>
+        <v>258026</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1642,7 +1648,7 @@
         <v>753</v>
       </c>
       <c r="N5" s="7">
-        <v>463729</v>
+        <v>523701</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1663,7 +1669,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>9160</v>
+        <v>10788</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1678,7 +1684,7 @@
         <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>15855</v>
+        <v>16704</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1693,7 +1699,7 @@
         <v>44</v>
       </c>
       <c r="N6" s="7">
-        <v>25015</v>
+        <v>27492</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1714,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>878</v>
+        <v>1031</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1729,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1019</v>
+        <v>1076</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1744,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>1897</v>
+        <v>2108</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1765,7 +1771,7 @@
         <v>330</v>
       </c>
       <c r="D8" s="7">
-        <v>259234</v>
+        <v>310161</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -1780,7 +1786,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -1795,7 +1801,7 @@
         <v>868</v>
       </c>
       <c r="N8" s="7">
-        <v>530636</v>
+        <v>599796</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -1818,7 +1824,7 @@
         <v>209</v>
       </c>
       <c r="D9" s="7">
-        <v>295480</v>
+        <v>297635</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1833,7 +1839,7 @@
         <v>291</v>
       </c>
       <c r="I9" s="7">
-        <v>233213</v>
+        <v>216734</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1848,7 +1854,7 @@
         <v>500</v>
       </c>
       <c r="N9" s="7">
-        <v>528692</v>
+        <v>514368</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1869,7 +1875,7 @@
         <v>127</v>
       </c>
       <c r="D10" s="7">
-        <v>161063</v>
+        <v>158483</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1884,7 +1890,7 @@
         <v>278</v>
       </c>
       <c r="I10" s="7">
-        <v>207628</v>
+        <v>192845</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1899,7 +1905,7 @@
         <v>405</v>
       </c>
       <c r="N10" s="7">
-        <v>368691</v>
+        <v>351328</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1920,7 +1926,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>42314</v>
+        <v>41391</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -1935,7 +1941,7 @@
         <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>90491</v>
+        <v>84159</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -1950,7 +1956,7 @@
         <v>154</v>
       </c>
       <c r="N11" s="7">
-        <v>132806</v>
+        <v>125550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -1971,46 +1977,46 @@
         <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>16637</v>
+        <v>16670</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
       </c>
       <c r="I12" s="7">
-        <v>21046</v>
+        <v>19465</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>37</v>
       </c>
       <c r="N12" s="7">
-        <v>37684</v>
+        <v>36136</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,7 +2028,7 @@
         <v>381</v>
       </c>
       <c r="D13" s="7">
-        <v>515494</v>
+        <v>514180</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -2037,7 +2043,7 @@
         <v>715</v>
       </c>
       <c r="I13" s="7">
-        <v>552379</v>
+        <v>513203</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -2052,7 +2058,7 @@
         <v>1096</v>
       </c>
       <c r="N13" s="7">
-        <v>1067873</v>
+        <v>1027382</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -2066,7 +2072,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2075,46 +2081,46 @@
         <v>186</v>
       </c>
       <c r="D14" s="7">
-        <v>177450</v>
+        <v>175520</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>217</v>
       </c>
       <c r="I14" s="7">
-        <v>165524</v>
+        <v>155398</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>403</v>
       </c>
       <c r="N14" s="7">
-        <v>342974</v>
+        <v>330918</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,46 +2132,46 @@
         <v>134</v>
       </c>
       <c r="D15" s="7">
-        <v>111170</v>
+        <v>107841</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>208</v>
       </c>
       <c r="I15" s="7">
-        <v>137047</v>
+        <v>127768</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>342</v>
       </c>
       <c r="N15" s="7">
-        <v>248216</v>
+        <v>235609</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,40 +2183,40 @@
         <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>28737</v>
+        <v>27993</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
       </c>
       <c r="I16" s="7">
-        <v>51338</v>
+        <v>47809</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
       </c>
       <c r="N16" s="7">
-        <v>80076</v>
+        <v>75802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>111</v>
@@ -2228,7 +2234,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>3847</v>
+        <v>3692</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>113</v>
@@ -2243,7 +2249,7 @@
         <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>18778</v>
+        <v>17601</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>116</v>
@@ -2258,7 +2264,7 @@
         <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>22625</v>
+        <v>21293</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>119</v>
@@ -2279,7 +2285,7 @@
         <v>359</v>
       </c>
       <c r="D18" s="7">
-        <v>321204</v>
+        <v>315046</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -2294,7 +2300,7 @@
         <v>535</v>
       </c>
       <c r="I18" s="7">
-        <v>372687</v>
+        <v>348576</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -2309,7 +2315,7 @@
         <v>894</v>
       </c>
       <c r="N18" s="7">
-        <v>693891</v>
+        <v>663622</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -2332,7 +2338,7 @@
         <v>131</v>
       </c>
       <c r="D19" s="7">
-        <v>157380</v>
+        <v>153308</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>123</v>
@@ -2347,7 +2353,7 @@
         <v>192</v>
       </c>
       <c r="I19" s="7">
-        <v>144921</v>
+        <v>134103</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>126</v>
@@ -2362,7 +2368,7 @@
         <v>323</v>
       </c>
       <c r="N19" s="7">
-        <v>302301</v>
+        <v>287411</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>129</v>
@@ -2383,7 +2389,7 @@
         <v>102</v>
       </c>
       <c r="D20" s="7">
-        <v>105698</v>
+        <v>102501</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>132</v>
@@ -2398,7 +2404,7 @@
         <v>205</v>
       </c>
       <c r="I20" s="7">
-        <v>157643</v>
+        <v>224402</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>135</v>
@@ -2413,7 +2419,7 @@
         <v>307</v>
       </c>
       <c r="N20" s="7">
-        <v>263341</v>
+        <v>326903</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>138</v>
@@ -2434,7 +2440,7 @@
         <v>53</v>
       </c>
       <c r="D21" s="7">
-        <v>53201</v>
+        <v>51039</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>141</v>
@@ -2449,7 +2455,7 @@
         <v>169</v>
       </c>
       <c r="I21" s="7">
-        <v>105690</v>
+        <v>98196</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>144</v>
@@ -2464,7 +2470,7 @@
         <v>222</v>
       </c>
       <c r="N21" s="7">
-        <v>158891</v>
+        <v>149235</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>147</v>
@@ -2485,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>2981</v>
+        <v>2897</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>150</v>
@@ -2500,7 +2506,7 @@
         <v>17</v>
       </c>
       <c r="I22" s="7">
-        <v>11863</v>
+        <v>11167</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>152</v>
@@ -2515,16 +2521,16 @@
         <v>19</v>
       </c>
       <c r="N22" s="7">
-        <v>14844</v>
+        <v>14064</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,7 +2542,7 @@
         <v>288</v>
       </c>
       <c r="D23" s="7">
-        <v>319261</v>
+        <v>309744</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -2551,7 +2557,7 @@
         <v>583</v>
       </c>
       <c r="I23" s="7">
-        <v>420117</v>
+        <v>467868</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -2566,7 +2572,7 @@
         <v>871</v>
       </c>
       <c r="N23" s="7">
-        <v>739378</v>
+        <v>777612</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -2580,7 +2586,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2589,25 +2595,25 @@
         <v>32</v>
       </c>
       <c r="D24" s="7">
-        <v>28202</v>
+        <v>25191</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>31</v>
       </c>
       <c r="I24" s="7">
-        <v>17388</v>
+        <v>15120</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>162</v>
@@ -2619,7 +2625,7 @@
         <v>63</v>
       </c>
       <c r="N24" s="7">
-        <v>45589</v>
+        <v>40311</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>164</v>
@@ -2640,7 +2646,7 @@
         <v>126</v>
       </c>
       <c r="D25" s="7">
-        <v>89167</v>
+        <v>81223</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>167</v>
@@ -2655,7 +2661,7 @@
         <v>185</v>
       </c>
       <c r="I25" s="7">
-        <v>90400</v>
+        <v>81157</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>170</v>
@@ -2670,7 +2676,7 @@
         <v>311</v>
       </c>
       <c r="N25" s="7">
-        <v>179567</v>
+        <v>162379</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>173</v>
@@ -2691,7 +2697,7 @@
         <v>117</v>
       </c>
       <c r="D26" s="7">
-        <v>77452</v>
+        <v>70571</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>176</v>
@@ -2706,7 +2712,7 @@
         <v>266</v>
       </c>
       <c r="I26" s="7">
-        <v>120120</v>
+        <v>108723</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>179</v>
@@ -2721,7 +2727,7 @@
         <v>383</v>
       </c>
       <c r="N26" s="7">
-        <v>197572</v>
+        <v>179293</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>182</v>
@@ -2742,46 +2748,46 @@
         <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>732</v>
+        <v>682</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
       </c>
       <c r="I27" s="7">
-        <v>2770</v>
+        <v>2538</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
       </c>
       <c r="N27" s="7">
-        <v>3502</v>
+        <v>3220</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,7 +2799,7 @@
         <v>277</v>
       </c>
       <c r="D28" s="7">
-        <v>195552</v>
+        <v>177667</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>49</v>
@@ -2808,7 +2814,7 @@
         <v>489</v>
       </c>
       <c r="I28" s="7">
-        <v>230678</v>
+        <v>207537</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>49</v>
@@ -2823,7 +2829,7 @@
         <v>766</v>
       </c>
       <c r="N28" s="7">
-        <v>426231</v>
+        <v>385204</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>49</v>
@@ -2846,7 +2852,7 @@
         <v>165</v>
       </c>
       <c r="D29" s="7">
-        <v>138646</v>
+        <v>135859</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>192</v>
@@ -2861,7 +2867,7 @@
         <v>176</v>
       </c>
       <c r="I29" s="7">
-        <v>126347</v>
+        <v>117821</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>195</v>
@@ -2876,7 +2882,7 @@
         <v>341</v>
       </c>
       <c r="N29" s="7">
-        <v>264993</v>
+        <v>253680</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>198</v>
@@ -2897,7 +2903,7 @@
         <v>161</v>
       </c>
       <c r="D30" s="7">
-        <v>110812</v>
+        <v>107213</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>201</v>
@@ -2912,7 +2918,7 @@
         <v>184</v>
       </c>
       <c r="I30" s="7">
-        <v>96744</v>
+        <v>90232</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>204</v>
@@ -2927,7 +2933,7 @@
         <v>345</v>
       </c>
       <c r="N30" s="7">
-        <v>207556</v>
+        <v>197445</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>207</v>
@@ -2948,7 +2954,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="7">
-        <v>21191</v>
+        <v>20285</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>210</v>
@@ -2963,31 +2969,31 @@
         <v>86</v>
       </c>
       <c r="I31" s="7">
-        <v>45135</v>
+        <v>42182</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>122</v>
       </c>
       <c r="N31" s="7">
-        <v>66326</v>
+        <v>62466</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,46 +3005,46 @@
         <v>9</v>
       </c>
       <c r="D32" s="7">
-        <v>6574</v>
+        <v>6280</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>14</v>
       </c>
       <c r="I32" s="7">
-        <v>7397</v>
+        <v>6821</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>23</v>
       </c>
       <c r="N32" s="7">
-        <v>13971</v>
+        <v>13101</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,7 +3056,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>49</v>
@@ -3065,7 +3071,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>49</v>
@@ -3080,7 +3086,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>49</v>
@@ -3094,7 +3100,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3103,46 +3109,46 @@
         <v>227</v>
       </c>
       <c r="D34" s="7">
-        <v>244637</v>
+        <v>247846</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>269</v>
       </c>
       <c r="I34" s="7">
-        <v>197302</v>
+        <v>183291</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>496</v>
       </c>
       <c r="N34" s="7">
-        <v>441939</v>
+        <v>431137</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,46 +3160,46 @@
         <v>258</v>
       </c>
       <c r="D35" s="7">
-        <v>264752</v>
+        <v>260269</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H35" s="7">
         <v>432</v>
       </c>
       <c r="I35" s="7">
-        <v>419192</v>
+        <v>491534</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
         <v>690</v>
       </c>
       <c r="N35" s="7">
-        <v>683944</v>
+        <v>751803</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,46 +3211,46 @@
         <v>94</v>
       </c>
       <c r="D36" s="7">
-        <v>95414</v>
+        <v>93553</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>202</v>
       </c>
       <c r="I36" s="7">
-        <v>150871</v>
+        <v>140089</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>163</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>296</v>
       </c>
       <c r="N36" s="7">
-        <v>246285</v>
+        <v>233642</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,46 +3262,46 @@
         <v>20</v>
       </c>
       <c r="D37" s="7">
-        <v>22952</v>
+        <v>22610</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
         <v>57</v>
       </c>
       <c r="I37" s="7">
-        <v>36837</v>
+        <v>34352</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
       </c>
       <c r="N37" s="7">
-        <v>59789</v>
+        <v>56962</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,7 +3313,7 @@
         <v>599</v>
       </c>
       <c r="D38" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>49</v>
@@ -3322,7 +3328,7 @@
         <v>960</v>
       </c>
       <c r="I38" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>49</v>
@@ -3337,7 +3343,7 @@
         <v>1559</v>
       </c>
       <c r="N38" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>49</v>
@@ -3351,7 +3357,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3360,46 +3366,46 @@
         <v>298</v>
       </c>
       <c r="D39" s="7">
-        <v>391744</v>
+        <v>532290</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H39" s="7">
         <v>323</v>
       </c>
       <c r="I39" s="7">
-        <v>293935</v>
+        <v>241177</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M39" s="7">
         <v>621</v>
       </c>
       <c r="N39" s="7">
-        <v>685680</v>
+        <v>773468</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,46 +3417,46 @@
         <v>307</v>
       </c>
       <c r="D40" s="7">
-        <v>308496</v>
+        <v>261347</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="H40" s="7">
         <v>451</v>
       </c>
       <c r="I40" s="7">
-        <v>346492</v>
+        <v>288564</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M40" s="7">
         <v>758</v>
       </c>
       <c r="N40" s="7">
-        <v>654988</v>
+        <v>549911</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,43 +3468,43 @@
         <v>135</v>
       </c>
       <c r="D41" s="7">
-        <v>137089</v>
+        <v>116603</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>255</v>
       </c>
       <c r="I41" s="7">
-        <v>202680</v>
+        <v>166780</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>390</v>
       </c>
       <c r="N41" s="7">
-        <v>339768</v>
+        <v>283384</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>288</v>
@@ -3513,25 +3519,25 @@
         <v>22</v>
       </c>
       <c r="D42" s="7">
-        <v>22099</v>
+        <v>18479</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>33</v>
       </c>
       <c r="I42" s="7">
-        <v>25327</v>
+        <v>21210</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>291</v>
+        <v>156</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>292</v>
@@ -3543,7 +3549,7 @@
         <v>55</v>
       </c>
       <c r="N42" s="7">
-        <v>47426</v>
+        <v>39689</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>294</v>
@@ -3552,7 +3558,7 @@
         <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,7 +3570,7 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>49</v>
@@ -3579,7 +3585,7 @@
         <v>1062</v>
       </c>
       <c r="I43" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>49</v>
@@ -3594,7 +3600,7 @@
         <v>1824</v>
       </c>
       <c r="N43" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>49</v>
@@ -3617,46 +3623,46 @@
         <v>1285</v>
       </c>
       <c r="D44" s="7">
-        <v>1460097</v>
+        <v>1600317</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H44" s="7">
         <v>1530</v>
       </c>
       <c r="I44" s="7">
-        <v>1192067</v>
+        <v>1077472</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M44" s="7">
         <v>2815</v>
       </c>
       <c r="N44" s="7">
-        <v>2652164</v>
+        <v>2677789</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,40 +3674,40 @@
         <v>1496</v>
       </c>
       <c r="D45" s="7">
-        <v>1373796</v>
+        <v>1344552</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H45" s="7">
         <v>2415</v>
       </c>
       <c r="I45" s="7">
-        <v>1696237</v>
+        <v>1754527</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M45" s="7">
         <v>3911</v>
       </c>
       <c r="N45" s="7">
-        <v>3070033</v>
+        <v>3099078</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>240</v>
+        <v>311</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>312</v>
@@ -3719,7 +3725,7 @@
         <v>513</v>
       </c>
       <c r="D46" s="7">
-        <v>464558</v>
+        <v>432223</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>314</v>
@@ -3734,7 +3740,7 @@
         <v>1213</v>
       </c>
       <c r="I46" s="7">
-        <v>782181</v>
+        <v>704641</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>317</v>
@@ -3749,7 +3755,7 @@
         <v>1726</v>
       </c>
       <c r="N46" s="7">
-        <v>1246739</v>
+        <v>1136864</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>320</v>
@@ -3770,7 +3776,7 @@
         <v>73</v>
       </c>
       <c r="D47" s="7">
-        <v>76701</v>
+        <v>72342</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>323</v>
@@ -3785,31 +3791,31 @@
         <v>184</v>
       </c>
       <c r="I47" s="7">
-        <v>125037</v>
+        <v>114230</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>326</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M47" s="7">
         <v>257</v>
       </c>
       <c r="N47" s="7">
-        <v>201738</v>
+        <v>186572</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>119</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,7 +3827,7 @@
         <v>3367</v>
       </c>
       <c r="D48" s="7">
-        <v>3375151</v>
+        <v>3449434</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>49</v>
@@ -3836,7 +3842,7 @@
         <v>5342</v>
       </c>
       <c r="I48" s="7">
-        <v>3795523</v>
+        <v>3650870</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>49</v>
@@ -3851,7 +3857,7 @@
         <v>8709</v>
       </c>
       <c r="N48" s="7">
-        <v>7170674</v>
+        <v>7100303</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>49</v>
@@ -3865,7 +3871,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
